--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1920100.288908021</v>
+        <v>1898351.809166307</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12062936.15886391</v>
+        <v>12062936.15886392</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184108.078182772</v>
+        <v>4184108.078182777</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8679563.022126764</v>
+        <v>8679563.022126762</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>269.6425323314736</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3606546765277</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>126.9932278639867</v>
       </c>
       <c r="V13" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>52.90622424463498</v>
       </c>
       <c r="F14" t="n">
-        <v>6.83465765105715</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>203.1977700471494</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>28.27534746156568</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>138.1219706437577</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.5595550832147</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>24.11662654221006</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0.7368957119599986</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>188.2196394312098</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>306.9555681507786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756526</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>168.3162634741016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>229.7965692041357</v>
       </c>
       <c r="H23" t="n">
-        <v>183.7445803284256</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>84.82420463792833</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>66.06391530585638</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>80.86018225786262</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>5.732180395783016</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>4.79961268934189</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.7797436784536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>50.92111676353711</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>357.5619802624872</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>40.79100033485345</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20079234900588</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>81.55608150679632</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>19.43815139972788</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>76.16829927623817</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888058</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>163.5358524338111</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>28.12559521766364</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>121.7653892614128</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3505,16 +3505,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>105.4063450911301</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>184.1739595194664</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>113.5103646250813</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>176.769782112358</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>313.8769665685542</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.92518451681224</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>17.15794421524345</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>172.4307665912969</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>387.1058109237816</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>148.2863188203556</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>76.84589590439879</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>86.66480470122553</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.061124352531</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>663.0986074121195</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>304.832908805369</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5050,7 +5050,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392465</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416653</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5126,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1385.566060743444</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.044275313594</v>
+        <v>1385.566060743444</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1096.148890706484</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>868.1593398084665</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1274.53911114974</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C14" t="n">
-        <v>1274.53911114974</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="D14" t="n">
-        <v>916.2734125429899</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="E14" t="n">
-        <v>530.4851599447456</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5278,7 +5278,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5287,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450754</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.278283189674</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y14" t="n">
-        <v>1661.138951213862</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E16" t="n">
         <v>624.6477645191717</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.044275313594</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1073.429894560719</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1032.061124352532</v>
+        <v>1565.4402645816</v>
       </c>
       <c r="C17" t="n">
-        <v>663.0986074121199</v>
+        <v>1196.477747641188</v>
       </c>
       <c r="D17" t="n">
-        <v>523.5814653477182</v>
+        <v>1196.477747641188</v>
       </c>
       <c r="E17" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653545</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392465</v>
+        <v>1952.040104645721</v>
       </c>
       <c r="Y17" t="n">
-        <v>1418.660964416653</v>
+        <v>1952.040104645721</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>652.2346852641123</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C19" t="n">
-        <v>627.8744564335971</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D19" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621296</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X19" t="n">
-        <v>652.2346852641123</v>
+        <v>932.6923844141636</v>
       </c>
       <c r="Y19" t="n">
-        <v>652.2346852641123</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="20">
@@ -5749,49 +5749,49 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883007</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="V20" t="n">
-        <v>3072.075344883007</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W20" t="n">
-        <v>2719.306689612893</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X20" t="n">
         <v>2409.250560167662</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>777.020896318616</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C22" t="n">
-        <v>608.0847133907091</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="D22" t="n">
-        <v>457.9680739783734</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E22" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>1356.675339798491</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.658912046873</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X22" t="n">
-        <v>958.6693611488557</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y22" t="n">
-        <v>958.6693611488557</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1032.061124352532</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C23" t="n">
-        <v>663.0986074121199</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D23" t="n">
-        <v>663.0986074121199</v>
+        <v>1095.404020490879</v>
       </c>
       <c r="E23" t="n">
-        <v>663.0986074121199</v>
+        <v>709.6157678926352</v>
       </c>
       <c r="F23" t="n">
-        <v>252.1127026225124</v>
+        <v>298.6298631030276</v>
       </c>
       <c r="G23" t="n">
-        <v>252.1127026225124</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653545</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392465</v>
+        <v>2599.371408077975</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416653</v>
+        <v>2209.232076102163</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,34 +6086,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.2459535582122</v>
+        <v>403.1511359853713</v>
       </c>
       <c r="C25" t="n">
-        <v>302.3097706303054</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D25" t="n">
-        <v>152.1931312179696</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E25" t="n">
-        <v>152.1931312179696</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>152.1931312179696</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>152.1931312179696</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>152.1931312179696</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>1645.778206672847</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1391.09371846696</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>1101.676548429999</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X25" t="n">
-        <v>873.6869975319821</v>
+        <v>805.5921799591412</v>
       </c>
       <c r="Y25" t="n">
-        <v>652.894418388452</v>
+        <v>584.799600815611</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1238.038871968309</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>869.0763550278969</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>869.0763550278969</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>483.2881024296526</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>72.30219764004505</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
         <v>66.51211643218342</v>
@@ -6226,19 +6226,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6256,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269322</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.778044008242</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.63871203243</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
@@ -6308,16 +6308,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.0642295677645</v>
+        <v>781.8689899442139</v>
       </c>
       <c r="C28" t="n">
-        <v>382.1280466398576</v>
+        <v>612.932807016307</v>
       </c>
       <c r="D28" t="n">
-        <v>382.1280466398576</v>
+        <v>462.8161676039713</v>
       </c>
       <c r="E28" t="n">
-        <v>234.2149530574645</v>
+        <v>314.9030740215782</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>314.9030740215782</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V28" t="n">
-        <v>1259.157560278958</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W28" t="n">
-        <v>969.7403902419976</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X28" t="n">
-        <v>741.7508393439803</v>
+        <v>963.5174547744537</v>
       </c>
       <c r="Y28" t="n">
-        <v>551.0642295677645</v>
+        <v>963.5174547744537</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1616.654488422266</v>
+        <v>2249.271807195286</v>
       </c>
       <c r="C29" t="n">
-        <v>1565.219016943946</v>
+        <v>1880.309290254874</v>
       </c>
       <c r="D29" t="n">
-        <v>1206.953318337195</v>
+        <v>1522.043591648124</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>1136.255339049879</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>725.269434260272</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V29" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W29" t="n">
-        <v>2766.859418723279</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.393660462199</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y29" t="n">
-        <v>2003.254328486388</v>
+        <v>2635.871647259408</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>608.0847133907091</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="C31" t="n">
-        <v>608.0847133907091</v>
+        <v>254.6050945713599</v>
       </c>
       <c r="D31" t="n">
-        <v>457.9680739783734</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>845.4915543310558</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X31" t="n">
-        <v>789.7331782209488</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y31" t="n">
-        <v>789.7331782209488</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1639.433183287318</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C32" t="n">
-        <v>1270.470666346906</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="D32" t="n">
-        <v>912.204967740156</v>
+        <v>1247.336299886559</v>
       </c>
       <c r="E32" t="n">
-        <v>912.204967740156</v>
+        <v>861.548047288315</v>
       </c>
       <c r="F32" t="n">
-        <v>501.2190629505484</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>86.14661279554491</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6712,40 +6712,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W32" t="n">
-        <v>2403.03827352421</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.57251526313</v>
+        <v>2382.341170533243</v>
       </c>
       <c r="Y32" t="n">
-        <v>1639.433183287318</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>364.5418494269122</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C34" t="n">
-        <v>364.5418494269122</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D34" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S34" t="n">
-        <v>1760.526414809417</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1538.759799378943</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1249.656932504586</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>994.9724442986994</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W34" t="n">
-        <v>994.9724442986994</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X34" t="n">
-        <v>766.9828934006821</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y34" t="n">
-        <v>546.190314257152</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2212.771568013854</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C35" t="n">
-        <v>1843.809051073443</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>1485.543352466692</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1099.755099868448</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>688.7691950788405</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>273.696744923837</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3091.218381854337</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2760.155494510766</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2407.386839240652</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>2033.921080979572</v>
       </c>
       <c r="Y35" t="n">
-        <v>2599.371408077976</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1737.935372053493</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C37" t="n">
-        <v>1737.935372053493</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D37" t="n">
-        <v>1587.818732641157</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E37" t="n">
-        <v>1587.818732641157</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F37" t="n">
-        <v>1587.818732641157</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435997</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005523</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131166</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>2368.36596692528</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>2368.36596692528</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>2140.376416027262</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>1919.583836883732</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1384.829779622645</v>
+        <v>1822.63223603804</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1453.669719097629</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490878</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926338</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329462</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001386</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060168</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="W38" t="n">
-        <v>2535.034709923658</v>
+        <v>2972.837166339054</v>
       </c>
       <c r="X38" t="n">
-        <v>2161.568951662578</v>
+        <v>2599.371408077974</v>
       </c>
       <c r="Y38" t="n">
-        <v>1771.429619686767</v>
+        <v>2209.232076102162</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.169050396912</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C40" t="n">
-        <v>181.169050396912</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
-        <v>181.169050396912</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>181.169050396912</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251691</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y40" t="n">
-        <v>362.8175152271517</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.52858457759</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C41" t="n">
-        <v>810.5660676371781</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D41" t="n">
-        <v>452.3003690304276</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X41" t="n">
-        <v>1956.267756617523</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1566.128424641711</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,31 +7508,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501176</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1579.480323917591</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C43" t="n">
-        <v>1579.480323917591</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D43" t="n">
-        <v>1579.480323917591</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E43" t="n">
-        <v>1579.480323917591</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F43" t="n">
-        <v>1562.149067134517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>1562.149067134517</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>3044.089480193526</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>2822.322864763052</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>2533.219997888695</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V43" t="n">
-        <v>2278.535509682808</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="W43" t="n">
-        <v>1989.118339645848</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="X43" t="n">
-        <v>1761.12878874783</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="Y43" t="n">
-        <v>1761.12878874783</v>
+        <v>1029.046520592482</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1811.579746109089</v>
+        <v>1616.654488422264</v>
       </c>
       <c r="C44" t="n">
-        <v>1442.617229168678</v>
+        <v>1616.654488422264</v>
       </c>
       <c r="D44" t="n">
-        <v>1084.351530561927</v>
+        <v>1258.388789815514</v>
       </c>
       <c r="E44" t="n">
-        <v>1084.351530561927</v>
+        <v>872.6005372172694</v>
       </c>
       <c r="F44" t="n">
-        <v>673.3656257723198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>258.2931756173163</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410103</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.784676410103</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W44" t="n">
-        <v>2961.784676410103</v>
+        <v>2766.859418723277</v>
       </c>
       <c r="X44" t="n">
-        <v>2588.318918149023</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y44" t="n">
-        <v>2198.179586173211</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,10 +7745,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>630.8037095364738</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C46" t="n">
-        <v>461.8675266085669</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D46" t="n">
-        <v>311.7508871962312</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E46" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1759.84197377087</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1538.075358340396</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1248.97249146604</v>
       </c>
       <c r="V46" t="n">
-        <v>1550.651474445222</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="W46" t="n">
-        <v>1261.234304408261</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="X46" t="n">
-        <v>1033.244753510244</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="Y46" t="n">
-        <v>812.4521743667135</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3760925029325</v>
+        <v>111.3760925029314</v>
       </c>
       <c r="K2" t="n">
-        <v>115.6728628570358</v>
+        <v>115.6728628570342</v>
       </c>
       <c r="L2" t="n">
-        <v>106.2279079411528</v>
+        <v>106.2279079411509</v>
       </c>
       <c r="M2" t="n">
-        <v>86.20968475950781</v>
+        <v>86.20968475950565</v>
       </c>
       <c r="N2" t="n">
-        <v>82.94423508449555</v>
+        <v>82.94423508449336</v>
       </c>
       <c r="O2" t="n">
-        <v>91.79185002470294</v>
+        <v>91.79185002470089</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1917161337042</v>
+        <v>113.1917161337025</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6616048283646</v>
+        <v>133.6616048283633</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34276391131272</v>
+        <v>85.3427639113121</v>
       </c>
       <c r="K3" t="n">
-        <v>66.92010932096004</v>
+        <v>66.92010932095899</v>
       </c>
       <c r="L3" t="n">
-        <v>43.19189982519249</v>
+        <v>43.19189982519107</v>
       </c>
       <c r="M3" t="n">
-        <v>30.85051777249889</v>
+        <v>30.85051777249723</v>
       </c>
       <c r="N3" t="n">
-        <v>17.11285239577309</v>
+        <v>17.11285239577138</v>
       </c>
       <c r="O3" t="n">
-        <v>38.09915424948197</v>
+        <v>38.09915424948042</v>
       </c>
       <c r="P3" t="n">
-        <v>50.10627990666575</v>
+        <v>50.1062799066645</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.91815189430238</v>
+        <v>83.91815189430154</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>86.23379249476886</v>
+        <v>86.23379249476821</v>
       </c>
       <c r="L4" t="n">
-        <v>80.14168867079337</v>
+        <v>80.14168867079255</v>
       </c>
       <c r="M4" t="n">
-        <v>81.20697904562992</v>
+        <v>81.20697904562905</v>
       </c>
       <c r="N4" t="n">
-        <v>71.33916373595474</v>
+        <v>71.3391637359539</v>
       </c>
       <c r="O4" t="n">
-        <v>86.41153592235779</v>
+        <v>86.41153592235702</v>
       </c>
       <c r="P4" t="n">
-        <v>93.19451333315405</v>
+        <v>93.1945133331534</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -8461,7 +8461,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8625,10 +8625,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48187344321937</v>
+        <v>14.48187344321935</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>113.091309332007</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>187.5697153957341</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>159.2186103416261</v>
       </c>
       <c r="V13" t="n">
-        <v>48.93987327667864</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>329.0241458276268</v>
       </c>
       <c r="F14" t="n">
-        <v>400.0413880906543</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>48.93987327667864</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>258.2476508750253</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>216.5610709769253</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>10.37081498904712</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>143.1301945564178</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>285.4749424936529</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24022,10 +24022,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>15.69833070841037</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>62.77553252769047</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>58.19598621064709</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>118.2067348624894</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493177</v>
       </c>
       <c r="H23" t="n">
-        <v>110.8631840588948</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>11.52821577190976</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>159.6457400831808</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>301.873659405618</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.1895452576704</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>161.2261955696863</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.80490967364122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>314.3517750074705</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>53.35974539096622</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.8244726833589</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5088630400313</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>325.3199642349151</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>275.1696129875926</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>113.6007260552037</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>73.85778156328897</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>131.0719119535094</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>222.8695767412383</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>44.26041899761545</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>259.8665466798775</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>222.702086222245</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>31.91068339784995</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.93987327667918</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>68.85687509492641</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.26257727136359</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>128.2631038076878</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>79.7068767325311</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>19.7702348179298</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>146.3214455669649</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>112.9231294270431</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.4728386226025</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>882424.924572942</v>
+        <v>882424.9245729413</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708803.1563305848</v>
+        <v>708803.1563305847</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708803.1563305848</v>
+        <v>708803.1563305845</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708803.1563305847</v>
+        <v>708803.1563305845</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>708803.1563305847</v>
+        <v>708803.1563305845</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708803.1563305847</v>
+        <v>708803.1563305845</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708803.1563305847</v>
+        <v>708803.1563305845</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708803.1563305848</v>
+        <v>708803.1563305845</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708803.1563305847</v>
+        <v>708803.1563305845</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594022.7176354431</v>
+        <v>594022.7176354433</v>
       </c>
       <c r="C2" t="n">
         <v>594029.8145386983</v>
       </c>
       <c r="D2" t="n">
-        <v>594035.8503329169</v>
+        <v>594035.8503329168</v>
       </c>
       <c r="E2" t="n">
         <v>494445.7935078348</v>
       </c>
       <c r="F2" t="n">
+        <v>494445.7935078351</v>
+      </c>
+      <c r="G2" t="n">
+        <v>494445.7935078347</v>
+      </c>
+      <c r="H2" t="n">
+        <v>494445.793507835</v>
+      </c>
+      <c r="I2" t="n">
+        <v>494445.793507835</v>
+      </c>
+      <c r="J2" t="n">
         <v>494445.7935078348</v>
       </c>
-      <c r="G2" t="n">
-        <v>494445.7935078348</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>494445.7935078347</v>
-      </c>
-      <c r="I2" t="n">
-        <v>494445.7935078347</v>
-      </c>
-      <c r="J2" t="n">
-        <v>494445.793507835</v>
-      </c>
-      <c r="K2" t="n">
-        <v>494445.7935078348</v>
       </c>
       <c r="L2" t="n">
         <v>494445.7935078348</v>
@@ -26349,13 +26349,13 @@
         <v>494445.7935078347</v>
       </c>
       <c r="N2" t="n">
-        <v>494445.7935078348</v>
+        <v>494445.7935078345</v>
       </c>
       <c r="O2" t="n">
-        <v>494445.7935078348</v>
+        <v>494445.793507835</v>
       </c>
       <c r="P2" t="n">
-        <v>494445.7935078349</v>
+        <v>494445.7935078347</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196760.0786190585</v>
+        <v>196760.0786190614</v>
       </c>
       <c r="C3" t="n">
-        <v>27855.40645598324</v>
+        <v>27855.40645598048</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378259.3928997744</v>
+        <v>378259.3928997737</v>
       </c>
       <c r="C4" t="n">
         <v>370434.2549872373</v>
@@ -26432,13 +26432,13 @@
         <v>10380.34706710378</v>
       </c>
       <c r="G4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="H4" t="n">
         <v>10380.34706710378</v>
       </c>
       <c r="I4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="J4" t="n">
         <v>10380.34706710378</v>
@@ -26456,10 +26456,10 @@
         <v>10380.34706710378</v>
       </c>
       <c r="O4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="P4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38078.94064598078</v>
+        <v>38078.94064598085</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26484,13 +26484,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26499,19 +26499,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139324</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19075.69452937054</v>
+        <v>-19118.19678855065</v>
       </c>
       <c r="C6" t="n">
-        <v>156994.348264331</v>
+        <v>156952.0907259577</v>
       </c>
       <c r="D6" t="n">
-        <v>168416.1701274682</v>
+        <v>168374.1207199271</v>
       </c>
       <c r="E6" t="n">
-        <v>-504484.344320817</v>
+        <v>-507960.533618878</v>
       </c>
       <c r="F6" t="n">
-        <v>409759.1058793377</v>
+        <v>406282.9165812769</v>
       </c>
       <c r="G6" t="n">
-        <v>409759.1058793378</v>
+        <v>406282.9165812769</v>
       </c>
       <c r="H6" t="n">
-        <v>409759.1058793376</v>
+        <v>406282.9165812768</v>
       </c>
       <c r="I6" t="n">
-        <v>409759.1058793376</v>
+        <v>406282.9165812769</v>
       </c>
       <c r="J6" t="n">
-        <v>409759.1058793379</v>
+        <v>406282.9165812766</v>
       </c>
       <c r="K6" t="n">
-        <v>409759.1058793377</v>
+        <v>406282.9165812766</v>
       </c>
       <c r="L6" t="n">
-        <v>409759.1058793377</v>
+        <v>406282.9165812767</v>
       </c>
       <c r="M6" t="n">
-        <v>202570.5375872646</v>
+        <v>199094.3482892037</v>
       </c>
       <c r="N6" t="n">
-        <v>409759.1058793378</v>
+        <v>406282.9165812765</v>
       </c>
       <c r="O6" t="n">
-        <v>409759.1058793378</v>
+        <v>406282.9165812768</v>
       </c>
       <c r="P6" t="n">
-        <v>409759.1058793378</v>
+        <v>406282.9165812766</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890265</v>
+        <v>204.1899378890296</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890265</v>
+        <v>204.1899378890296</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59010023696768</v>
+        <v>30.59010023696465</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.0681279392606</v>
+        <v>331.0681279392605</v>
       </c>
       <c r="I2" t="n">
-        <v>178.8295274378765</v>
+        <v>178.829527437876</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>98.30551518367606</v>
+        <v>98.30551518367528</v>
       </c>
       <c r="S2" t="n">
-        <v>190.3146295474667</v>
+        <v>190.3146295474664</v>
       </c>
       <c r="T2" t="n">
         <v>219.5025170893204</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.9043161647324</v>
+        <v>136.9043161647323</v>
       </c>
       <c r="H3" t="n">
         <v>107.9936872248772</v>
       </c>
       <c r="I3" t="n">
-        <v>74.27501952661453</v>
+        <v>74.2750195266143</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.88884584361426</v>
+        <v>72.88884584361385</v>
       </c>
       <c r="S3" t="n">
-        <v>163.5252051891206</v>
+        <v>163.5252051891205</v>
       </c>
       <c r="T3" t="n">
         <v>198.3944404597271</v>
@@ -27557,10 +27557,10 @@
         <v>158.9534387491532</v>
       </c>
       <c r="I4" t="n">
-        <v>144.3773550168173</v>
+        <v>144.3773550168171</v>
       </c>
       <c r="J4" t="n">
-        <v>67.32663672383738</v>
+        <v>67.326636723837</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.32936263045139</v>
+        <v>55.32936263045092</v>
       </c>
       <c r="R4" t="n">
-        <v>160.7372695280035</v>
+        <v>160.7372695280033</v>
       </c>
       <c r="S4" t="n">
-        <v>217.5996781856073</v>
+        <v>217.5996781856072</v>
       </c>
       <c r="T4" t="n">
         <v>226.3723226937267</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -28034,7 +28034,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8208640719156839</v>
+        <v>0.8208640719156961</v>
       </c>
       <c r="H2" t="n">
-        <v>8.406674176506499</v>
+        <v>8.406674176506625</v>
       </c>
       <c r="I2" t="n">
-        <v>31.64636213252943</v>
+        <v>31.6463621325299</v>
       </c>
       <c r="J2" t="n">
-        <v>69.66981202375383</v>
+        <v>69.66981202375487</v>
       </c>
       <c r="K2" t="n">
-        <v>104.4169881879448</v>
+        <v>104.4169881879463</v>
       </c>
       <c r="L2" t="n">
-        <v>129.5385070288344</v>
+        <v>129.5385070288363</v>
       </c>
       <c r="M2" t="n">
-        <v>144.1365484677649</v>
+        <v>144.1365484677671</v>
       </c>
       <c r="N2" t="n">
-        <v>146.4688285120954</v>
+        <v>146.4688285120976</v>
       </c>
       <c r="O2" t="n">
-        <v>138.3063613969838</v>
+        <v>138.3063613969858</v>
       </c>
       <c r="P2" t="n">
-        <v>118.0412796215653</v>
+        <v>118.0412796215671</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.64408504608487</v>
+        <v>88.64408504608619</v>
       </c>
       <c r="R2" t="n">
-        <v>51.56360275747362</v>
+        <v>51.56360275747439</v>
       </c>
       <c r="S2" t="n">
-        <v>18.70544003877867</v>
+        <v>18.70544003877894</v>
       </c>
       <c r="T2" t="n">
-        <v>3.593332474810908</v>
+        <v>3.593332474810961</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06566912575325469</v>
+        <v>0.06566912575325567</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4392009984782835</v>
+        <v>0.43920099847829</v>
       </c>
       <c r="H3" t="n">
-        <v>4.241757011619212</v>
+        <v>4.241757011619275</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12161332480055</v>
+        <v>15.12161332480078</v>
       </c>
       <c r="J3" t="n">
-        <v>41.49486275535397</v>
+        <v>41.49486275535459</v>
       </c>
       <c r="K3" t="n">
-        <v>70.92132965339896</v>
+        <v>70.92132965340001</v>
       </c>
       <c r="L3" t="n">
-        <v>95.36247995468169</v>
+        <v>95.36247995468311</v>
       </c>
       <c r="M3" t="n">
-        <v>111.2835161495194</v>
+        <v>111.2835161495211</v>
       </c>
       <c r="N3" t="n">
-        <v>114.2288596875602</v>
+        <v>114.2288596875619</v>
       </c>
       <c r="O3" t="n">
-        <v>104.4970901949625</v>
+        <v>104.497090194964</v>
       </c>
       <c r="P3" t="n">
-        <v>83.8681275076645</v>
+        <v>83.86812750766575</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.06362219171913</v>
+        <v>56.06362219171997</v>
       </c>
       <c r="R3" t="n">
-        <v>27.26898830902887</v>
+        <v>27.26898830902928</v>
       </c>
       <c r="S3" t="n">
-        <v>8.157965914717233</v>
+        <v>8.157965914717355</v>
       </c>
       <c r="T3" t="n">
-        <v>1.770288235094484</v>
+        <v>1.77028823509451</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02889480253146603</v>
+        <v>0.02889480253146646</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3682113634064412</v>
+        <v>0.3682113634064467</v>
       </c>
       <c r="H4" t="n">
-        <v>3.273733758286361</v>
+        <v>3.27373375828641</v>
       </c>
       <c r="I4" t="n">
-        <v>11.07311991044098</v>
+        <v>11.07311991044115</v>
       </c>
       <c r="J4" t="n">
-        <v>26.03254339283539</v>
+        <v>26.03254339283578</v>
       </c>
       <c r="K4" t="n">
-        <v>42.77946567576652</v>
+        <v>42.77946567576716</v>
       </c>
       <c r="L4" t="n">
-        <v>54.74298761044491</v>
+        <v>54.74298761044573</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71880490197513</v>
+        <v>57.71880490197599</v>
       </c>
       <c r="N4" t="n">
-        <v>56.34638072927844</v>
+        <v>56.34638072927929</v>
       </c>
       <c r="O4" t="n">
-        <v>52.045002529485</v>
+        <v>52.04500252948578</v>
       </c>
       <c r="P4" t="n">
-        <v>44.53349071599357</v>
+        <v>44.53349071599423</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.832680621243</v>
+        <v>30.83268062124346</v>
       </c>
       <c r="R4" t="n">
-        <v>16.55612184916598</v>
+        <v>16.55612184916622</v>
       </c>
       <c r="S4" t="n">
-        <v>6.416919851364978</v>
+        <v>6.416919851365074</v>
       </c>
       <c r="T4" t="n">
-        <v>1.573266734554794</v>
+        <v>1.573266734554817</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02008425618580591</v>
+        <v>0.02008425618580621</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31524,7 +31524,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31548,7 +31548,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31557,7 +31557,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31630,7 +31630,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31682,7 +31682,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31697,13 +31697,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623171</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.59011439233</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
